--- a/Modding resources/Influence/Coup_math.xlsx
+++ b/Modding resources/Influence/Coup_math.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Influence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F22EBA5-508B-46EA-83D6-02D60A5DD718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3765B5-924A-4EDC-846D-85EA4F62B466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DCEB2807-1BA2-4D23-B88B-B3389516B953}"/>
   </bookViews>
@@ -617,7 +617,7 @@
   <dimension ref="B1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,14 +639,14 @@
         <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
       <c r="F2">
         <f>C12</f>
-        <v>0.5</v>
+        <v>0.49990000000000001</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
@@ -656,7 +656,7 @@
       </c>
       <c r="L2">
         <f>C11</f>
-        <v>0.25</v>
+        <v>0.11</v>
       </c>
       <c r="M2" t="s">
         <v>9</v>
@@ -666,7 +666,7 @@
       </c>
       <c r="Q2">
         <f>C11</f>
-        <v>0.25</v>
+        <v>0.11</v>
       </c>
       <c r="R2" t="s">
         <v>17</v>
@@ -677,25 +677,25 @@
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="F3">
         <f>F2/100</f>
-        <v>5.0000000000000001E-3</v>
+        <v>4.999E-3</v>
       </c>
       <c r="G3" t="s">
         <v>6</v>
       </c>
       <c r="L3">
         <f>L2/100</f>
-        <v>2.5000000000000001E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="M3" t="s">
         <v>6</v>
       </c>
       <c r="Q3">
         <f>Q2*-1</f>
-        <v>-0.25</v>
+        <v>-0.11</v>
       </c>
       <c r="R3" t="s">
         <v>19</v>
@@ -710,21 +710,21 @@
       </c>
       <c r="F4">
         <f>F3+C2</f>
-        <v>0.44500000000000001</v>
+        <v>0.47499899999999995</v>
       </c>
       <c r="G4" t="s">
         <v>7</v>
       </c>
       <c r="L4">
         <f>L3+C3+C6</f>
-        <v>0.33250000000000002</v>
+        <v>0.35109999999999997</v>
       </c>
       <c r="M4" t="s">
         <v>15</v>
       </c>
       <c r="Q4">
         <f>Q3+1</f>
-        <v>0.75</v>
+        <v>0.89</v>
       </c>
       <c r="R4" t="s">
         <v>20</v>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="1">
         <f>F4+C4</f>
-        <v>0.48499999999999999</v>
+        <v>0.51499899999999998</v>
       </c>
       <c r="G5" t="s">
         <v>8</v>
@@ -747,7 +747,7 @@
       <c r="L5" s="2"/>
       <c r="Q5" s="1">
         <f>Q4*0.7</f>
-        <v>0.52499999999999991</v>
+        <v>0.623</v>
       </c>
       <c r="R5" t="s">
         <v>21</v>
@@ -758,7 +758,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="3">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
@@ -780,10 +780,10 @@
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" s="3">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="F8" s="1">
         <f>F7/2</f>
@@ -798,7 +798,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="3">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.25">
@@ -807,7 +807,7 @@
       </c>
       <c r="F10" s="1">
         <f>F5*F8</f>
-        <v>29.0168225</v>
+        <v>30.811617671499999</v>
       </c>
       <c r="G10" t="s">
         <v>13</v>
@@ -817,7 +817,7 @@
       </c>
       <c r="L10" s="1">
         <f>L4+C3</f>
-        <v>0.63250000000000006</v>
+        <v>0.66110000000000002</v>
       </c>
       <c r="M10" t="s">
         <v>18</v>
@@ -827,7 +827,7 @@
       </c>
       <c r="Q10" s="1">
         <f>Q5</f>
-        <v>0.52499999999999991</v>
+        <v>0.623</v>
       </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.25">
@@ -835,7 +835,7 @@
         <v>30</v>
       </c>
       <c r="C11" s="3">
-        <v>0.25</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
@@ -843,7 +843,7 @@
         <v>31</v>
       </c>
       <c r="C12" s="3">
-        <v>0.5</v>
+        <v>0.49990000000000001</v>
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
@@ -851,7 +851,7 @@
         <v>32</v>
       </c>
       <c r="C13" s="3">
-        <v>0.25</v>
+        <v>0.2084</v>
       </c>
     </row>
     <row r="14" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -861,7 +861,7 @@
       </c>
       <c r="F15" s="5">
         <f>C12</f>
-        <v>0.5</v>
+        <v>0.49990000000000001</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>26</v>
@@ -874,7 +874,7 @@
       </c>
       <c r="L15" s="5">
         <f>C13</f>
-        <v>0.25</v>
+        <v>0.2084</v>
       </c>
       <c r="M15" s="5" t="s">
         <v>26</v>
@@ -886,7 +886,7 @@
       </c>
       <c r="Q15" s="5">
         <f>1-C13-C12</f>
-        <v>0.25</v>
+        <v>0.29169999999999996</v>
       </c>
       <c r="R15" s="5" t="s">
         <v>34</v>
@@ -899,7 +899,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="8">
         <f>F15*(C2+C4)</f>
-        <v>0.24</v>
+        <v>0.25494900000000004</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>27</v>
@@ -910,7 +910,7 @@
       <c r="K16" s="8"/>
       <c r="L16" s="8">
         <f>L15*(C3+C6)</f>
-        <v>8.249999999999999E-2</v>
+        <v>7.2939999999999991E-2</v>
       </c>
       <c r="M16" s="8" t="s">
         <v>27</v>
@@ -920,7 +920,7 @@
       <c r="P16" s="8"/>
       <c r="Q16" s="8">
         <f>Q15*(C5+C7+C8+C9)</f>
-        <v>7.2500000000000009E-2</v>
+        <v>2.9169999999999998E-2</v>
       </c>
       <c r="R16" s="8" t="s">
         <v>35</v>
@@ -933,7 +933,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="8">
         <f>F16*C11</f>
-        <v>0.06</v>
+        <v>2.8044390000000006E-2</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>28</v>
@@ -997,7 +997,7 @@
       </c>
       <c r="F20" s="10">
         <f>F17</f>
-        <v>0.06</v>
+        <v>2.8044390000000006E-2</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
@@ -1008,7 +1008,7 @@
       </c>
       <c r="L20" s="10">
         <f>L16</f>
-        <v>8.249999999999999E-2</v>
+        <v>7.2939999999999991E-2</v>
       </c>
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="Q20" s="10">
         <f>Q16</f>
-        <v>7.2500000000000009E-2</v>
+        <v>2.9169999999999998E-2</v>
       </c>
       <c r="R20" s="8"/>
       <c r="S20" s="8"/>
@@ -1029,7 +1029,7 @@
       <c r="E21" s="11"/>
       <c r="F21" s="12">
         <f>F20/(F20+L20+Q20)</f>
-        <v>0.27906976744186046</v>
+        <v>0.21547018122093314</v>
       </c>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
@@ -1038,7 +1038,7 @@
       <c r="K21" s="12"/>
       <c r="L21" s="12">
         <f>L20/(F20+L20+Q20)</f>
-        <v>0.3837209302325581</v>
+        <v>0.56041136991230189</v>
       </c>
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
@@ -1046,7 +1046,7 @@
       <c r="P21" s="12"/>
       <c r="Q21" s="12">
         <f>Q20/(F20+L20+Q20)</f>
-        <v>0.33720930232558144</v>
+        <v>0.2241184488667651</v>
       </c>
       <c r="R21" s="13"/>
       <c r="S21" s="13"/>
